--- a/src/test/resources/data/DataSheet.xlsx
+++ b/src/test/resources/data/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NazmulHossain\Projects\external-api-qa\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FB026-1CF1-4E23-91F7-AC505BF6406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52680B43-FCE2-48AA-BB71-0BF8F0DBFE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1570" windowWidth="20470" windowHeight="8630" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
+    <workbookView xWindow="0" yWindow="1420" windowWidth="19200" windowHeight="8630" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpactData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>TCID</t>
   </si>
@@ -58,9 +58,6 @@
     <t>ExpectedResponseBody</t>
   </si>
   <si>
-    <t>/impacts/v1/impacts?startDate=2020-5-1&amp;endDate=2022-5-1</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -74,6 +71,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>impacts/v1/impacts?startDate=2020-5-1&amp;endDate=2022-5-1</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>preRequisites</t>
+  </si>
+  <si>
+    <t>FieldValidations</t>
   </si>
 </sst>
 </file>
@@ -427,82 +436,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7E84D1-294A-4626-81FA-9856648E2C09}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="43.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="26.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/DataSheet.xlsx
+++ b/src/test/resources/data/DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NazmulHossain\Projects\external-api-qa\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52680B43-FCE2-48AA-BB71-0BF8F0DBFE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98142D-C87E-4D3B-9176-D84B7CFE92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1420" windowWidth="19200" windowHeight="8630" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>TCID</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>impacts/v1/impacts?startDate=2020-5-1&amp;endDate=2022-5-1</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>FieldValidations</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -501,10 +501,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -521,7 +521,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/DataSheet.xlsx
+++ b/src/test/resources/data/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NazmulHossain\Projects\external-api-qa\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D98142D-C87E-4D3B-9176-D84B7CFE92C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6953519-4484-48B3-AACC-5EFEEF8E6A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1420" windowWidth="19200" windowHeight="8630" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
+    <workbookView xWindow="4050" yWindow="-17670" windowWidth="30600" windowHeight="15900" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpactData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
@@ -73,16 +73,22 @@
     <t>impacts/v1/impacts?startDate=2020-5-1&amp;endDate=2022-5-1</t>
   </si>
   <si>
+    <t>preRequisites</t>
+  </si>
+  <si>
+    <t>FieldValidations</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Get impacts for invalid Date Range</t>
+  </si>
+  <si>
+    <t>impacts/v1/impacts?startDate=2023-5-1&amp;endDate=2024-5-1</t>
+  </si>
+  <si>
     <t>400</t>
-  </si>
-  <si>
-    <t>preRequisites</t>
-  </si>
-  <si>
-    <t>FieldValidations</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
 </sst>
 </file>
@@ -438,17 +444,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7E84D1-294A-4626-81FA-9856648E2C09}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6328125" style="1" customWidth="1"/>
     <col min="8" max="9" width="17.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
@@ -466,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -481,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -504,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -515,16 +521,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
